--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/Version.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/Version.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9204"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -268,7 +281,7 @@
     <t>周書四庫全書本</t>
   </si>
   <si>
-    <t>170011000601</t>
+    <t>160011000601</t>
   </si>
   <si>
     <t>周書中華書局本</t>
@@ -2893,7 +2906,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3851,23 +3864,23 @@
   <sheetPr/>
   <dimension ref="A1:K5879"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="1"/>
-    <col min="2" max="3" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1083333333333" style="1"/>
+    <col min="2" max="3" width="11.775" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.33333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.77777777777778" style="1"/>
+    <col min="10" max="10" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -4007,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>33</v>
@@ -5366,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="F157" s="1">
-        <v>17001</v>
+        <v>16001</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>84</v>
@@ -5393,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="1">
-        <v>17001</v>
+        <v>16001</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>84</v>
